--- a/data/consolidated_customer_report_analysis.xlsx
+++ b/data/consolidated_customer_report_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiaszwingmann/Repos/chatgpt-for-data-analytics-bootcamp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE237E-F9E8-9248-AF96-D5D76A7D6D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17672DC3-9C9D-544C-8A4C-F1CE6CF85537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="3620" windowWidth="26160" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -814,6 +814,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,19 +846,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5679,8 +5677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5700,20 +5698,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -5734,18 +5732,18 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="2"/>
       <c r="K4" s="9"/>
       <c r="L4" s="17"/>
@@ -5795,13 +5793,13 @@
       <c r="N5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="59" t="s">
+      <c r="Q5" s="50" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5852,7 +5850,7 @@
         <f>SUM(B6:E6)</f>
         <v>175</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="51">
         <f>SUM(F6:I6)</f>
         <v>29491.599999999999</v>
       </c>
@@ -5910,7 +5908,7 @@
         <f t="shared" ref="O7:O70" si="0">SUM(B7:E7)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="60">
+      <c r="P7" s="51">
         <f t="shared" ref="P7:P70" si="1">SUM(F7:I7)</f>
         <v>207.25</v>
       </c>
@@ -5968,7 +5966,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P8" s="60">
+      <c r="P8" s="51">
         <f t="shared" si="1"/>
         <v>2612.86</v>
       </c>
@@ -6024,7 +6022,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="51">
         <f t="shared" si="1"/>
         <v>2179.9299999999998</v>
       </c>
@@ -6080,7 +6078,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P10" s="51">
         <f t="shared" si="1"/>
         <v>17654.54</v>
       </c>
@@ -6136,7 +6134,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="51">
         <f t="shared" si="1"/>
         <v>15899.29</v>
       </c>
@@ -6192,7 +6190,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P12" s="60">
+      <c r="P12" s="51">
         <f t="shared" si="1"/>
         <v>933.7</v>
       </c>
@@ -6248,7 +6246,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P13" s="60">
+      <c r="P13" s="51">
         <f t="shared" si="1"/>
         <v>2160.6999999999998</v>
       </c>
@@ -6304,7 +6302,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P14" s="60">
+      <c r="P14" s="51">
         <f t="shared" si="1"/>
         <v>1064.0700000000002</v>
       </c>
@@ -6360,7 +6358,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="60">
+      <c r="P15" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6416,7 +6414,7 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="51">
         <f t="shared" si="1"/>
         <v>10753.720000000001</v>
       </c>
@@ -6472,7 +6470,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P17" s="60">
+      <c r="P17" s="51">
         <f t="shared" si="1"/>
         <v>6721.61</v>
       </c>
@@ -6528,7 +6526,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P18" s="60">
+      <c r="P18" s="51">
         <f t="shared" si="1"/>
         <v>415.55000000000007</v>
       </c>
@@ -6584,7 +6582,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="P19" s="60">
+      <c r="P19" s="51">
         <f t="shared" si="1"/>
         <v>11746.779999999999</v>
       </c>
@@ -6640,7 +6638,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P20" s="60">
+      <c r="P20" s="51">
         <f t="shared" si="1"/>
         <v>25970.6</v>
       </c>
@@ -6696,7 +6694,7 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="P21" s="60">
+      <c r="P21" s="51">
         <f t="shared" si="1"/>
         <v>52872.619999999995</v>
       </c>
@@ -6752,7 +6750,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P22" s="60">
+      <c r="P22" s="51">
         <f t="shared" si="1"/>
         <v>1488.6700000000003</v>
       </c>
@@ -6808,7 +6806,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P23" s="60">
+      <c r="P23" s="51">
         <f t="shared" si="1"/>
         <v>2294.7799999999997</v>
       </c>
@@ -6864,7 +6862,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P24" s="60">
+      <c r="P24" s="51">
         <f t="shared" si="1"/>
         <v>1793.58</v>
       </c>
@@ -6920,7 +6918,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P25" s="60">
+      <c r="P25" s="51">
         <f t="shared" si="1"/>
         <v>2607.6099999999997</v>
       </c>
@@ -6976,7 +6974,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P26" s="60">
+      <c r="P26" s="51">
         <f t="shared" si="1"/>
         <v>9105.32</v>
       </c>
@@ -7032,7 +7030,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P27" s="60">
+      <c r="P27" s="51">
         <f t="shared" si="1"/>
         <v>5257.1200000000008</v>
       </c>
@@ -7088,7 +7086,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P28" s="60">
+      <c r="P28" s="51">
         <f t="shared" si="1"/>
         <v>501.12</v>
       </c>
@@ -7144,7 +7142,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P29" s="60">
+      <c r="P29" s="51">
         <f t="shared" si="1"/>
         <v>3899.19</v>
       </c>
@@ -7200,7 +7198,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P30" s="60">
+      <c r="P30" s="51">
         <f t="shared" si="1"/>
         <v>4684.0599999999995</v>
       </c>
@@ -7256,7 +7254,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P31" s="60">
+      <c r="P31" s="51">
         <f t="shared" si="1"/>
         <v>618.08999999999992</v>
       </c>
@@ -7312,7 +7310,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P32" s="60">
+      <c r="P32" s="51">
         <f t="shared" si="1"/>
         <v>1555.3200000000002</v>
       </c>
@@ -7368,7 +7366,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P33" s="60">
+      <c r="P33" s="51">
         <f t="shared" si="1"/>
         <v>9294.4700000000012</v>
       </c>
@@ -7424,7 +7422,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P34" s="60">
+      <c r="P34" s="51">
         <f t="shared" si="1"/>
         <v>1360.99</v>
       </c>
@@ -7480,7 +7478,7 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="P35" s="60">
+      <c r="P35" s="51">
         <f t="shared" si="1"/>
         <v>25085.84</v>
       </c>
@@ -7536,7 +7534,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P36" s="60">
+      <c r="P36" s="51">
         <f t="shared" si="1"/>
         <v>7586.39</v>
       </c>
@@ -7592,7 +7590,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P37" s="60">
+      <c r="P37" s="51">
         <f t="shared" si="1"/>
         <v>918.19999999999993</v>
       </c>
@@ -7648,7 +7646,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P38" s="60">
+      <c r="P38" s="51">
         <f t="shared" si="1"/>
         <v>2092.3199999999997</v>
       </c>
@@ -7704,7 +7702,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P39" s="60">
+      <c r="P39" s="51">
         <f t="shared" si="1"/>
         <v>2478.9499999999998</v>
       </c>
@@ -7760,7 +7758,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P40" s="60">
+      <c r="P40" s="51">
         <f t="shared" si="1"/>
         <v>2037.08</v>
       </c>
@@ -7816,7 +7814,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P41" s="60">
+      <c r="P41" s="51">
         <f t="shared" si="1"/>
         <v>4800.83</v>
       </c>
@@ -7872,7 +7870,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P42" s="60">
+      <c r="P42" s="51">
         <f t="shared" si="1"/>
         <v>6185.93</v>
       </c>
@@ -7928,7 +7926,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P43" s="60">
+      <c r="P43" s="51">
         <f t="shared" si="1"/>
         <v>1488.3200000000002</v>
       </c>
@@ -7984,7 +7982,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P44" s="60">
+      <c r="P44" s="51">
         <f t="shared" si="1"/>
         <v>62142.58</v>
       </c>
@@ -8040,7 +8038,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P45" s="60">
+      <c r="P45" s="51">
         <f t="shared" si="1"/>
         <v>2265.12</v>
       </c>
@@ -8096,7 +8094,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P46" s="60">
+      <c r="P46" s="51">
         <f t="shared" si="1"/>
         <v>3131.0200000000004</v>
       </c>
@@ -8152,7 +8150,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P47" s="60">
+      <c r="P47" s="51">
         <f t="shared" si="1"/>
         <v>4185.12</v>
       </c>
@@ -8208,7 +8206,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P48" s="60">
+      <c r="P48" s="51">
         <f t="shared" si="1"/>
         <v>19015.38</v>
       </c>
@@ -8264,7 +8262,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="P49" s="60">
+      <c r="P49" s="51">
         <f t="shared" si="1"/>
         <v>2770.9400000000005</v>
       </c>
@@ -8320,7 +8318,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P50" s="60">
+      <c r="P50" s="51">
         <f t="shared" si="1"/>
         <v>1838.85</v>
       </c>
@@ -8376,7 +8374,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P51" s="60">
+      <c r="P51" s="51">
         <f t="shared" si="1"/>
         <v>561.57000000000005</v>
       </c>
@@ -8432,7 +8430,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P52" s="60">
+      <c r="P52" s="51">
         <f t="shared" si="1"/>
         <v>2427.3199999999997</v>
       </c>
@@ -8488,7 +8486,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P53" s="60">
+      <c r="P53" s="51">
         <f t="shared" si="1"/>
         <v>2526.2799999999997</v>
       </c>
@@ -8544,7 +8542,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P54" s="60">
+      <c r="P54" s="51">
         <f t="shared" si="1"/>
         <v>3599.71</v>
       </c>
@@ -8600,7 +8598,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P55" s="60">
+      <c r="P55" s="51">
         <f t="shared" si="1"/>
         <v>1683.59</v>
       </c>
@@ -8656,7 +8654,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P56" s="60">
+      <c r="P56" s="51">
         <f t="shared" si="1"/>
         <v>5266.38</v>
       </c>
@@ -8712,7 +8710,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P57" s="60">
+      <c r="P57" s="51">
         <f t="shared" si="1"/>
         <v>558.54</v>
       </c>
@@ -8768,7 +8766,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P58" s="60">
+      <c r="P58" s="51">
         <f t="shared" si="1"/>
         <v>3258.3</v>
       </c>
@@ -8824,7 +8822,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P59" s="60">
+      <c r="P59" s="51">
         <f t="shared" si="1"/>
         <v>2339.9899999999998</v>
       </c>
@@ -8880,7 +8878,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P60" s="60">
+      <c r="P60" s="51">
         <f t="shared" si="1"/>
         <v>5683.15</v>
       </c>
@@ -8936,7 +8934,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P61" s="60">
+      <c r="P61" s="51">
         <f t="shared" si="1"/>
         <v>692.85</v>
       </c>
@@ -8992,7 +8990,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P62" s="60">
+      <c r="P62" s="51">
         <f t="shared" si="1"/>
         <v>2915.15</v>
       </c>
@@ -9048,7 +9046,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P63" s="60">
+      <c r="P63" s="51">
         <f t="shared" si="1"/>
         <v>3586.0299999999997</v>
       </c>
@@ -9104,7 +9102,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P64" s="60">
+      <c r="P64" s="51">
         <f t="shared" si="1"/>
         <v>432.88</v>
       </c>
@@ -9160,7 +9158,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P65" s="60">
+      <c r="P65" s="51">
         <f t="shared" si="1"/>
         <v>559.41</v>
       </c>
@@ -9216,7 +9214,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P66" s="60">
+      <c r="P66" s="51">
         <f t="shared" si="1"/>
         <v>3852.27</v>
       </c>
@@ -9272,7 +9270,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P67" s="60">
+      <c r="P67" s="51">
         <f t="shared" si="1"/>
         <v>2054.36</v>
       </c>
@@ -9328,7 +9326,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P68" s="60">
+      <c r="P68" s="51">
         <f t="shared" si="1"/>
         <v>2073.4300000000003</v>
       </c>
@@ -9384,7 +9382,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P69" s="60">
+      <c r="P69" s="51">
         <f t="shared" si="1"/>
         <v>2048.0699999999997</v>
       </c>
@@ -9440,7 +9438,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P70" s="60">
+      <c r="P70" s="51">
         <f t="shared" si="1"/>
         <v>775.45999999999992</v>
       </c>
@@ -9496,7 +9494,7 @@
         <f t="shared" ref="O71:O134" si="3">SUM(B71:E71)</f>
         <v>8</v>
       </c>
-      <c r="P71" s="60">
+      <c r="P71" s="51">
         <f t="shared" ref="P71:P134" si="4">SUM(F71:I71)</f>
         <v>2116.77</v>
       </c>
@@ -9554,7 +9552,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P72" s="60">
+      <c r="P72" s="51">
         <f t="shared" si="4"/>
         <v>12669.98</v>
       </c>
@@ -9610,7 +9608,7 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="P73" s="60">
+      <c r="P73" s="51">
         <f t="shared" si="4"/>
         <v>46837.84</v>
       </c>
@@ -9666,7 +9664,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P74" s="60">
+      <c r="P74" s="51">
         <f t="shared" si="4"/>
         <v>2128.23</v>
       </c>
@@ -9722,7 +9720,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P75" s="60">
+      <c r="P75" s="51">
         <f t="shared" si="4"/>
         <v>1247.69</v>
       </c>
@@ -9778,7 +9776,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P76" s="60">
+      <c r="P76" s="51">
         <f t="shared" si="4"/>
         <v>2157.73</v>
       </c>
@@ -9834,7 +9832,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="P77" s="60">
+      <c r="P77" s="51">
         <f t="shared" si="4"/>
         <v>5025.1000000000004</v>
       </c>
@@ -9890,7 +9888,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P78" s="60">
+      <c r="P78" s="51">
         <f t="shared" si="4"/>
         <v>4481.67</v>
       </c>
@@ -9946,7 +9944,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P79" s="60">
+      <c r="P79" s="51">
         <f t="shared" si="4"/>
         <v>1712.8899999999999</v>
       </c>
@@ -10002,7 +10000,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P80" s="60">
+      <c r="P80" s="51">
         <f t="shared" si="4"/>
         <v>1656.96</v>
       </c>
@@ -10058,7 +10056,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P81" s="60">
+      <c r="P81" s="51">
         <f t="shared" si="4"/>
         <v>3543.26</v>
       </c>
@@ -10114,7 +10112,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P82" s="60">
+      <c r="P82" s="51">
         <f t="shared" si="4"/>
         <v>2925.91</v>
       </c>
@@ -10170,7 +10168,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="P83" s="60">
+      <c r="P83" s="51">
         <f t="shared" si="4"/>
         <v>4447.05</v>
       </c>
@@ -10226,7 +10224,7 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="P84" s="60">
+      <c r="P84" s="51">
         <f t="shared" si="4"/>
         <v>1829.6</v>
       </c>
@@ -10282,7 +10280,7 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="P85" s="60">
+      <c r="P85" s="51">
         <f t="shared" si="4"/>
         <v>10909.99</v>
       </c>
@@ -10338,7 +10336,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="P86" s="60">
+      <c r="P86" s="51">
         <f t="shared" si="4"/>
         <v>7243.1</v>
       </c>
@@ -10394,7 +10392,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P87" s="60">
+      <c r="P87" s="51">
         <f t="shared" si="4"/>
         <v>2240.5100000000002</v>
       </c>
@@ -10450,7 +10448,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P88" s="60">
+      <c r="P88" s="51">
         <f t="shared" si="4"/>
         <v>663.81</v>
       </c>
@@ -10506,7 +10504,7 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="P89" s="60">
+      <c r="P89" s="51">
         <f t="shared" si="4"/>
         <v>5813.49</v>
       </c>
@@ -10562,7 +10560,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P90" s="60">
+      <c r="P90" s="51">
         <f t="shared" si="4"/>
         <v>6993.6699999999992</v>
       </c>
@@ -10618,7 +10616,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P91" s="60">
+      <c r="P91" s="51">
         <f t="shared" si="4"/>
         <v>434.35</v>
       </c>
@@ -10674,7 +10672,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P92" s="60">
+      <c r="P92" s="51">
         <f t="shared" si="4"/>
         <v>1101.97</v>
       </c>
@@ -10730,7 +10728,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P93" s="60">
+      <c r="P93" s="51">
         <f t="shared" si="4"/>
         <v>1337.7200000000003</v>
       </c>
@@ -10786,7 +10784,7 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="P94" s="60">
+      <c r="P94" s="51">
         <f t="shared" si="4"/>
         <v>34583.479999999996</v>
       </c>
@@ -10842,7 +10840,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P95" s="60">
+      <c r="P95" s="51">
         <f t="shared" si="4"/>
         <v>1043.4100000000001</v>
       </c>
@@ -10898,7 +10896,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="P96" s="60">
+      <c r="P96" s="51">
         <f t="shared" si="4"/>
         <v>8924.4599999999991</v>
       </c>
@@ -10954,7 +10952,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P97" s="60">
+      <c r="P97" s="51">
         <f t="shared" si="4"/>
         <v>3973.29</v>
       </c>
@@ -11010,7 +11008,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P98" s="60">
+      <c r="P98" s="51">
         <f t="shared" si="4"/>
         <v>11528.48</v>
       </c>
@@ -11066,7 +11064,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P99" s="60">
+      <c r="P99" s="51">
         <f t="shared" si="4"/>
         <v>961.49</v>
       </c>
@@ -11122,7 +11120,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P100" s="60">
+      <c r="P100" s="51">
         <f t="shared" si="4"/>
         <v>843.05</v>
       </c>
@@ -11178,7 +11176,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P101" s="60">
+      <c r="P101" s="51">
         <f t="shared" si="4"/>
         <v>2206.9499999999998</v>
       </c>
@@ -11234,7 +11232,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="P102" s="60">
+      <c r="P102" s="51">
         <f t="shared" si="4"/>
         <v>4777.18</v>
       </c>
@@ -11290,7 +11288,7 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="P103" s="60">
+      <c r="P103" s="51">
         <f t="shared" si="4"/>
         <v>16225.39</v>
       </c>
@@ -11346,7 +11344,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P104" s="60">
+      <c r="P104" s="51">
         <f t="shared" si="4"/>
         <v>328.35</v>
       </c>
@@ -11402,7 +11400,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="P105" s="60">
+      <c r="P105" s="51">
         <f t="shared" si="4"/>
         <v>5756.8899999999994</v>
       </c>
@@ -11458,7 +11456,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P106" s="60">
+      <c r="P106" s="51">
         <f t="shared" si="4"/>
         <v>1706.5700000000002</v>
       </c>
@@ -11514,7 +11512,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="P107" s="60">
+      <c r="P107" s="51">
         <f t="shared" si="4"/>
         <v>6688.46</v>
       </c>
@@ -11570,7 +11568,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="P108" s="60">
+      <c r="P108" s="51">
         <f t="shared" si="4"/>
         <v>10484.99</v>
       </c>
@@ -11626,7 +11624,7 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="P109" s="60">
+      <c r="P109" s="51">
         <f t="shared" si="4"/>
         <v>7723.6200000000008</v>
       </c>
@@ -11682,7 +11680,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P110" s="60">
+      <c r="P110" s="51">
         <f t="shared" si="4"/>
         <v>3672.8599999999997</v>
       </c>
@@ -11738,7 +11736,7 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="P111" s="60">
+      <c r="P111" s="51">
         <f t="shared" si="4"/>
         <v>58091.24</v>
       </c>
@@ -11794,7 +11792,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="P112" s="60">
+      <c r="P112" s="51">
         <f t="shared" si="4"/>
         <v>2400.96</v>
       </c>
@@ -11850,7 +11848,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P113" s="60">
+      <c r="P113" s="51">
         <f t="shared" si="4"/>
         <v>2211.83</v>
       </c>
@@ -11906,7 +11904,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P114" s="60">
+      <c r="P114" s="51">
         <f t="shared" si="4"/>
         <v>716.2</v>
       </c>
@@ -11962,7 +11960,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P115" s="60">
+      <c r="P115" s="51">
         <f t="shared" si="4"/>
         <v>467.51</v>
       </c>
@@ -12018,7 +12016,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P116" s="60">
+      <c r="P116" s="51">
         <f t="shared" si="4"/>
         <v>9455.5299999999988</v>
       </c>
@@ -12074,7 +12072,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P117" s="60">
+      <c r="P117" s="51">
         <f t="shared" si="4"/>
         <v>807.57</v>
       </c>
@@ -12130,7 +12128,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="P118" s="60">
+      <c r="P118" s="51">
         <f t="shared" si="4"/>
         <v>3815.3500000000004</v>
       </c>
@@ -12186,7 +12184,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="P119" s="60">
+      <c r="P119" s="51">
         <f t="shared" si="4"/>
         <v>5540.11</v>
       </c>
@@ -12242,7 +12240,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="P120" s="60">
+      <c r="P120" s="51">
         <f t="shared" si="4"/>
         <v>1293.03</v>
       </c>
@@ -12298,7 +12296,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P121" s="60">
+      <c r="P121" s="51">
         <f t="shared" si="4"/>
         <v>1426.16</v>
       </c>
@@ -12354,7 +12352,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="P122" s="60">
+      <c r="P122" s="51">
         <f t="shared" si="4"/>
         <v>5632.07</v>
       </c>
@@ -12410,7 +12408,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P123" s="60">
+      <c r="P123" s="51">
         <f t="shared" si="4"/>
         <v>4482.7700000000004</v>
       </c>
@@ -12466,7 +12464,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P124" s="60">
+      <c r="P124" s="51">
         <f t="shared" si="4"/>
         <v>2364.25</v>
       </c>
@@ -12522,7 +12520,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="P125" s="60">
+      <c r="P125" s="51">
         <f t="shared" si="4"/>
         <v>2711.56</v>
       </c>
@@ -12578,7 +12576,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="P126" s="60">
+      <c r="P126" s="51">
         <f t="shared" si="4"/>
         <v>4206.3900000000003</v>
       </c>
@@ -12634,7 +12632,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P127" s="60">
+      <c r="P127" s="51">
         <f t="shared" si="4"/>
         <v>1485.12</v>
       </c>
@@ -12690,7 +12688,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P128" s="60">
+      <c r="P128" s="51">
         <f t="shared" si="4"/>
         <v>1654.31</v>
       </c>
@@ -12746,7 +12744,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P129" s="60">
+      <c r="P129" s="51">
         <f t="shared" si="4"/>
         <v>346.14</v>
       </c>
@@ -12802,7 +12800,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P130" s="60">
+      <c r="P130" s="51">
         <f t="shared" si="4"/>
         <v>363.88</v>
       </c>
@@ -12858,7 +12856,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="P131" s="60">
+      <c r="P131" s="51">
         <f t="shared" si="4"/>
         <v>3408.48</v>
       </c>
@@ -12914,7 +12912,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P132" s="60">
+      <c r="P132" s="51">
         <f t="shared" si="4"/>
         <v>1142.42</v>
       </c>
@@ -12970,7 +12968,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P133" s="60">
+      <c r="P133" s="51">
         <f t="shared" si="4"/>
         <v>2797.57</v>
       </c>
@@ -13026,7 +13024,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="P134" s="60">
+      <c r="P134" s="51">
         <f t="shared" si="4"/>
         <v>797.43</v>
       </c>
@@ -13082,7 +13080,7 @@
         <f t="shared" ref="O135:O198" si="6">SUM(B135:E135)</f>
         <v>42</v>
       </c>
-      <c r="P135" s="60">
+      <c r="P135" s="51">
         <f t="shared" ref="P135:P198" si="7">SUM(F135:I135)</f>
         <v>34157.599999999999</v>
       </c>
@@ -13140,7 +13138,7 @@
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="P136" s="60">
+      <c r="P136" s="51">
         <f t="shared" si="7"/>
         <v>67912.319999999992</v>
       </c>
@@ -13196,7 +13194,7 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="P137" s="60">
+      <c r="P137" s="51">
         <f t="shared" si="7"/>
         <v>8506.7099999999991</v>
       </c>
@@ -13252,7 +13250,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P138" s="60">
+      <c r="P138" s="51">
         <f t="shared" si="7"/>
         <v>1521.87</v>
       </c>
@@ -13308,7 +13306,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P139" s="60">
+      <c r="P139" s="51">
         <f t="shared" si="7"/>
         <v>1078.23</v>
       </c>
@@ -13364,7 +13362,7 @@
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="P140" s="60">
+      <c r="P140" s="51">
         <f t="shared" si="7"/>
         <v>14589.04</v>
       </c>
@@ -13420,7 +13418,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="P141" s="60">
+      <c r="P141" s="51">
         <f t="shared" si="7"/>
         <v>3496.71</v>
       </c>
@@ -13476,7 +13474,7 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="P142" s="60">
+      <c r="P142" s="51">
         <f t="shared" si="7"/>
         <v>4999.26</v>
       </c>
@@ -13532,7 +13530,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P143" s="60">
+      <c r="P143" s="51">
         <f t="shared" si="7"/>
         <v>415.00000000000011</v>
       </c>
@@ -13588,7 +13586,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P144" s="60">
+      <c r="P144" s="51">
         <f t="shared" si="7"/>
         <v>1822.97</v>
       </c>
@@ -13644,7 +13642,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P145" s="60">
+      <c r="P145" s="51">
         <f t="shared" si="7"/>
         <v>2262.62</v>
       </c>
@@ -13700,7 +13698,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P146" s="60">
+      <c r="P146" s="51">
         <f t="shared" si="7"/>
         <v>1800.07</v>
       </c>
@@ -13756,7 +13754,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P147" s="60">
+      <c r="P147" s="51">
         <f t="shared" si="7"/>
         <v>428.68</v>
       </c>
@@ -13812,7 +13810,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="P148" s="60">
+      <c r="P148" s="51">
         <f t="shared" si="7"/>
         <v>1750.92</v>
       </c>
@@ -13868,7 +13866,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P149" s="60">
+      <c r="P149" s="51">
         <f t="shared" si="7"/>
         <v>734.77</v>
       </c>
@@ -13924,7 +13922,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P150" s="60">
+      <c r="P150" s="51">
         <f t="shared" si="7"/>
         <v>642.80999999999995</v>
       </c>
@@ -13980,7 +13978,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P151" s="60">
+      <c r="P151" s="51">
         <f t="shared" si="7"/>
         <v>3640.67</v>
       </c>
@@ -14036,7 +14034,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P152" s="60">
+      <c r="P152" s="51">
         <f t="shared" si="7"/>
         <v>168472.5</v>
       </c>
@@ -14092,7 +14090,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P153" s="60">
+      <c r="P153" s="51">
         <f t="shared" si="7"/>
         <v>1422.4</v>
       </c>
@@ -14148,7 +14146,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P154" s="60">
+      <c r="P154" s="51">
         <f t="shared" si="7"/>
         <v>546.04999999999995</v>
       </c>
@@ -14204,7 +14202,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P155" s="60">
+      <c r="P155" s="51">
         <f t="shared" si="7"/>
         <v>544.30000000000007</v>
       </c>
@@ -14260,7 +14258,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P156" s="60">
+      <c r="P156" s="51">
         <f t="shared" si="7"/>
         <v>1950.06</v>
       </c>
@@ -14316,7 +14314,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P157" s="60">
+      <c r="P157" s="51">
         <f t="shared" si="7"/>
         <v>874.59</v>
       </c>
@@ -14372,7 +14370,7 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="P158" s="60">
+      <c r="P158" s="51">
         <f t="shared" si="7"/>
         <v>9418.4699999999993</v>
       </c>
@@ -14428,7 +14426,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P159" s="60">
+      <c r="P159" s="51">
         <f t="shared" si="7"/>
         <v>1009.5999999999999</v>
       </c>
@@ -14484,7 +14482,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P160" s="60">
+      <c r="P160" s="51">
         <f t="shared" si="7"/>
         <v>2647.59</v>
       </c>
@@ -14540,7 +14538,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P161" s="60">
+      <c r="P161" s="51">
         <f t="shared" si="7"/>
         <v>1154.47</v>
       </c>
@@ -14596,7 +14594,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P162" s="60">
+      <c r="P162" s="51">
         <f t="shared" si="7"/>
         <v>1609.92</v>
       </c>
@@ -14652,7 +14650,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="P163" s="60">
+      <c r="P163" s="51">
         <f t="shared" si="7"/>
         <v>6773.9699999999993</v>
       </c>
@@ -14708,7 +14706,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P164" s="60">
+      <c r="P164" s="51">
         <f t="shared" si="7"/>
         <v>1267.6500000000001</v>
       </c>
@@ -14764,7 +14762,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P165" s="60">
+      <c r="P165" s="51">
         <f t="shared" si="7"/>
         <v>1958.0700000000002</v>
       </c>
@@ -14820,7 +14818,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P166" s="60">
+      <c r="P166" s="51">
         <f t="shared" si="7"/>
         <v>3551.13</v>
       </c>
@@ -14876,7 +14874,7 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="P167" s="60">
+      <c r="P167" s="51">
         <f t="shared" si="7"/>
         <v>2799.25</v>
       </c>
@@ -14932,7 +14930,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="P168" s="60">
+      <c r="P168" s="51">
         <f t="shared" si="7"/>
         <v>1545.62</v>
       </c>
@@ -14988,7 +14986,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="P169" s="60">
+      <c r="P169" s="51">
         <f t="shared" si="7"/>
         <v>1222.71</v>
       </c>
@@ -15044,7 +15042,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P170" s="60">
+      <c r="P170" s="51">
         <f t="shared" si="7"/>
         <v>342.45</v>
       </c>
@@ -15100,7 +15098,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P171" s="60">
+      <c r="P171" s="51">
         <f t="shared" si="7"/>
         <v>173.76</v>
       </c>
@@ -15156,7 +15154,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="P172" s="60">
+      <c r="P172" s="51">
         <f t="shared" si="7"/>
         <v>2812.3399999999997</v>
       </c>
@@ -15212,7 +15210,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P173" s="60">
+      <c r="P173" s="51">
         <f t="shared" si="7"/>
         <v>525.54</v>
       </c>
@@ -15268,7 +15266,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="P174" s="60">
+      <c r="P174" s="51">
         <f t="shared" si="7"/>
         <v>2056.44</v>
       </c>
@@ -15324,7 +15322,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P175" s="60">
+      <c r="P175" s="51">
         <f t="shared" si="7"/>
         <v>2736.38</v>
       </c>
@@ -15380,7 +15378,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="P176" s="60">
+      <c r="P176" s="51">
         <f t="shared" si="7"/>
         <v>3591.6099999999997</v>
       </c>
@@ -15436,7 +15434,7 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="P177" s="60">
+      <c r="P177" s="51">
         <f t="shared" si="7"/>
         <v>6336.62</v>
       </c>
@@ -15492,7 +15490,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P178" s="60">
+      <c r="P178" s="51">
         <f t="shared" si="7"/>
         <v>859.34999999999991</v>
       </c>
@@ -15548,7 +15546,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="P179" s="60">
+      <c r="P179" s="51">
         <f t="shared" si="7"/>
         <v>2126.5</v>
       </c>
@@ -15604,7 +15602,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="P180" s="60">
+      <c r="P180" s="51">
         <f t="shared" si="7"/>
         <v>2429.0300000000002</v>
       </c>
@@ -15660,7 +15658,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P181" s="60">
+      <c r="P181" s="51">
         <f t="shared" si="7"/>
         <v>834.12000000000012</v>
       </c>
@@ -15716,7 +15714,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P182" s="60">
+      <c r="P182" s="51">
         <f t="shared" si="7"/>
         <v>3534.3100000000004</v>
       </c>
@@ -15772,7 +15770,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P183" s="60">
+      <c r="P183" s="51">
         <f t="shared" si="7"/>
         <v>1022.1300000000001</v>
       </c>
@@ -15828,7 +15826,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P184" s="60">
+      <c r="P184" s="51">
         <f t="shared" si="7"/>
         <v>206.34</v>
       </c>
@@ -15884,7 +15882,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="P185" s="60">
+      <c r="P185" s="51">
         <f t="shared" si="7"/>
         <v>3347.31</v>
       </c>
@@ -15940,7 +15938,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P186" s="60">
+      <c r="P186" s="51">
         <f t="shared" si="7"/>
         <v>444.74</v>
       </c>
@@ -15996,7 +15994,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P187" s="60">
+      <c r="P187" s="51">
         <f t="shared" si="7"/>
         <v>841.40999999999985</v>
       </c>
@@ -16052,7 +16050,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P188" s="60">
+      <c r="P188" s="51">
         <f t="shared" si="7"/>
         <v>2527.92</v>
       </c>
@@ -16108,7 +16106,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="P189" s="60">
+      <c r="P189" s="51">
         <f t="shared" si="7"/>
         <v>921.06999999999994</v>
       </c>
@@ -16164,7 +16162,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P190" s="60">
+      <c r="P190" s="51">
         <f t="shared" si="7"/>
         <v>4801.5600000000004</v>
       </c>
@@ -16220,7 +16218,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P191" s="60">
+      <c r="P191" s="51">
         <f t="shared" si="7"/>
         <v>2173.88</v>
       </c>
@@ -16276,7 +16274,7 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="P192" s="60">
+      <c r="P192" s="51">
         <f t="shared" si="7"/>
         <v>3852.3</v>
       </c>
@@ -16332,7 +16330,7 @@
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="P193" s="60">
+      <c r="P193" s="51">
         <f t="shared" si="7"/>
         <v>16362.9</v>
       </c>
@@ -16388,7 +16386,7 @@
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="P194" s="60">
+      <c r="P194" s="51">
         <f t="shared" si="7"/>
         <v>192521.95</v>
       </c>
@@ -16444,7 +16442,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P195" s="60">
+      <c r="P195" s="51">
         <f t="shared" si="7"/>
         <v>1870.9700000000003</v>
       </c>
@@ -16500,7 +16498,7 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="P196" s="60">
+      <c r="P196" s="51">
         <f t="shared" si="7"/>
         <v>2997.0299999999997</v>
       </c>
@@ -16556,7 +16554,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P197" s="60">
+      <c r="P197" s="51">
         <f t="shared" si="7"/>
         <v>6115.14</v>
       </c>
@@ -16612,7 +16610,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P198" s="60">
+      <c r="P198" s="51">
         <f t="shared" si="7"/>
         <v>957.30000000000007</v>
       </c>
@@ -16668,7 +16666,7 @@
         <f t="shared" ref="O199:O231" si="9">SUM(B199:E199)</f>
         <v>3</v>
       </c>
-      <c r="P199" s="60">
+      <c r="P199" s="51">
         <f t="shared" ref="P199:P231" si="10">SUM(F199:I199)</f>
         <v>448.9</v>
       </c>
@@ -16726,7 +16724,7 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="P200" s="60">
+      <c r="P200" s="51">
         <f t="shared" si="10"/>
         <v>2895.6400000000003</v>
       </c>
@@ -16782,7 +16780,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P201" s="60">
+      <c r="P201" s="51">
         <f t="shared" si="10"/>
         <v>2055.5100000000002</v>
       </c>
@@ -16838,7 +16836,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="P202" s="60">
+      <c r="P202" s="51">
         <f t="shared" si="10"/>
         <v>3406.72</v>
       </c>
@@ -16894,7 +16892,7 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="P203" s="60">
+      <c r="P203" s="51">
         <f t="shared" si="10"/>
         <v>19355.16</v>
       </c>
@@ -16950,7 +16948,7 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="P204" s="60">
+      <c r="P204" s="51">
         <f t="shared" si="10"/>
         <v>14746.630000000001</v>
       </c>
@@ -17006,7 +17004,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P205" s="60">
+      <c r="P205" s="51">
         <f t="shared" si="10"/>
         <v>2082.83</v>
       </c>
@@ -17062,7 +17060,7 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P206" s="60">
+      <c r="P206" s="51">
         <f t="shared" si="10"/>
         <v>200.47</v>
       </c>
@@ -17118,7 +17116,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="P207" s="60">
+      <c r="P207" s="51">
         <f t="shared" si="10"/>
         <v>1823.52</v>
       </c>
@@ -17174,7 +17172,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="P208" s="60">
+      <c r="P208" s="51">
         <f t="shared" si="10"/>
         <v>5298.48</v>
       </c>
@@ -17230,7 +17228,7 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="P209" s="60">
+      <c r="P209" s="51">
         <f t="shared" si="10"/>
         <v>1240.1099999999999</v>
       </c>
@@ -17286,7 +17284,7 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="P210" s="60">
+      <c r="P210" s="51">
         <f t="shared" si="10"/>
         <v>12655.42</v>
       </c>
@@ -17342,7 +17340,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P211" s="60">
+      <c r="P211" s="51">
         <f t="shared" si="10"/>
         <v>1143.27</v>
       </c>
@@ -17398,7 +17396,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P212" s="60">
+      <c r="P212" s="51">
         <f t="shared" si="10"/>
         <v>1770.88</v>
       </c>
@@ -17454,7 +17452,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P213" s="60">
+      <c r="P213" s="51">
         <f t="shared" si="10"/>
         <v>2724.75</v>
       </c>
@@ -17510,7 +17508,7 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="P214" s="60">
+      <c r="P214" s="51">
         <f t="shared" si="10"/>
         <v>1843.7399999999998</v>
       </c>
@@ -17566,7 +17564,7 @@
         <f t="shared" si="9"/>
         <v>118</v>
       </c>
-      <c r="P215" s="60">
+      <c r="P215" s="51">
         <f t="shared" si="10"/>
         <v>38518.5</v>
       </c>
@@ -17622,7 +17620,7 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="P216" s="60">
+      <c r="P216" s="51">
         <f t="shared" si="10"/>
         <v>25538.34</v>
       </c>
@@ -17678,7 +17676,7 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="P217" s="60">
+      <c r="P217" s="51">
         <f t="shared" si="10"/>
         <v>9446.49</v>
       </c>
@@ -17734,7 +17732,7 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="P218" s="60">
+      <c r="P218" s="51">
         <f t="shared" si="10"/>
         <v>671.77</v>
       </c>
@@ -17790,7 +17788,7 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="P219" s="60">
+      <c r="P219" s="51">
         <f t="shared" si="10"/>
         <v>4106.4400000000005</v>
       </c>
@@ -17846,7 +17844,7 @@
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="P220" s="60">
+      <c r="P220" s="51">
         <f t="shared" si="10"/>
         <v>57196.479999999996</v>
       </c>
@@ -17902,7 +17900,7 @@
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="P221" s="60">
+      <c r="P221" s="51">
         <f t="shared" si="10"/>
         <v>726.68999999999994</v>
       </c>
@@ -17958,7 +17956,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="P222" s="60">
+      <c r="P222" s="51">
         <f t="shared" si="10"/>
         <v>2014.35</v>
       </c>
@@ -18014,7 +18012,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="P223" s="60">
+      <c r="P223" s="51">
         <f t="shared" si="10"/>
         <v>1714.25</v>
       </c>
@@ -18070,7 +18068,7 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="P224" s="60">
+      <c r="P224" s="51">
         <f t="shared" si="10"/>
         <v>3877.5199999999995</v>
       </c>
@@ -18126,7 +18124,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="P225" s="60">
+      <c r="P225" s="51">
         <f t="shared" si="10"/>
         <v>2412.8000000000002</v>
       </c>
@@ -18182,7 +18180,7 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="P226" s="60">
+      <c r="P226" s="51">
         <f t="shared" si="10"/>
         <v>2515.2800000000002</v>
       </c>
@@ -18238,7 +18236,7 @@
         <f t="shared" si="9"/>
         <v>56</v>
       </c>
-      <c r="P227" s="60">
+      <c r="P227" s="51">
         <f t="shared" si="10"/>
         <v>231822.69</v>
       </c>
@@ -18294,7 +18292,7 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="P228" s="60">
+      <c r="P228" s="51">
         <f t="shared" si="10"/>
         <v>7500.2199999999993</v>
       </c>
@@ -18350,7 +18348,7 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="P229" s="60">
+      <c r="P229" s="51">
         <f t="shared" si="10"/>
         <v>5425.5599999999995</v>
       </c>
@@ -18406,7 +18404,7 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="P230" s="60">
+      <c r="P230" s="51">
         <f t="shared" si="10"/>
         <v>1993.6999999999998</v>
       </c>
@@ -18462,7 +18460,7 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="P231" s="60">
+      <c r="P231" s="51">
         <f t="shared" si="10"/>
         <v>6623.7</v>
       </c>
@@ -18533,18 +18531,18 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="38"/>
-      <c r="B237" s="51" t="s">
+      <c r="B237" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C237" s="52"/>
-      <c r="D237" s="52"/>
-      <c r="E237" s="53"/>
-      <c r="F237" s="51" t="s">
+      <c r="C237" s="57"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="G237" s="52"/>
-      <c r="H237" s="52"/>
-      <c r="I237" s="53"/>
+      <c r="G237" s="57"/>
+      <c r="H237" s="57"/>
+      <c r="I237" s="58"/>
       <c r="J237" s="39"/>
       <c r="K237" s="40"/>
       <c r="L237" s="41"/>
@@ -20819,29 +20817,29 @@
       <c r="I35" s="21">
         <v>873.01</v>
       </c>
-      <c r="K35" s="56"/>
-      <c r="L35" s="58" t="s">
+      <c r="K35" s="48"/>
+      <c r="L35" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="M35" s="58" t="s">
+      <c r="M35" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="N35" s="58" t="s">
+      <c r="N35" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="O35" s="58" t="s">
+      <c r="O35" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="56" t="s">
+      <c r="P35" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="Q35" s="56" t="s">
+      <c r="Q35" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="R35" s="56" t="s">
+      <c r="R35" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="S35" s="56" t="s">
+      <c r="S35" s="48" t="s">
         <v>105</v>
       </c>
     </row>
@@ -20873,19 +20871,12 @@
       <c r="I36" s="21">
         <v>0</v>
       </c>
-      <c r="K36" s="57" t="s">
+      <c r="K36" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L36" s="54">
-        <v>1</v>
-      </c>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
+      <c r="L36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
@@ -20915,21 +20906,15 @@
       <c r="I37" s="21">
         <v>2319.79</v>
       </c>
-      <c r="K37" s="57" t="s">
+      <c r="K37" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="54">
+      <c r="L37">
         <v>0.83396340236268274</v>
       </c>
-      <c r="M37" s="54">
-        <v>1</v>
-      </c>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
+      <c r="M37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
@@ -20959,23 +20944,18 @@
       <c r="I38" s="21">
         <v>1428.72</v>
       </c>
-      <c r="K38" s="57" t="s">
+      <c r="K38" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L38" s="54">
+      <c r="L38">
         <v>0.82936194463599144</v>
       </c>
-      <c r="M38" s="54">
+      <c r="M38">
         <v>0.88977032287761226</v>
       </c>
-      <c r="N38" s="54">
-        <v>1</v>
-      </c>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
+      <c r="N38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
@@ -21005,25 +20985,21 @@
       <c r="I39" s="21">
         <v>616.74</v>
       </c>
-      <c r="K39" s="57" t="s">
+      <c r="K39" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L39" s="54">
+      <c r="L39">
         <v>0.698655946000314</v>
       </c>
-      <c r="M39" s="54">
+      <c r="M39">
         <v>0.83580971659993897</v>
       </c>
-      <c r="N39" s="54">
+      <c r="N39">
         <v>0.83466715374373546</v>
       </c>
-      <c r="O39" s="54">
-        <v>1</v>
-      </c>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
+      <c r="O39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
@@ -21053,27 +21029,24 @@
       <c r="I40" s="21">
         <v>13512.56</v>
       </c>
-      <c r="K40" s="54" t="s">
+      <c r="K40" t="s">
         <v>102</v>
       </c>
-      <c r="L40" s="54">
+      <c r="L40">
         <v>0.53493189115140538</v>
       </c>
-      <c r="M40" s="54">
+      <c r="M40">
         <v>0.47322489896684383</v>
       </c>
-      <c r="N40" s="54">
+      <c r="N40">
         <v>0.57838544322442442</v>
       </c>
-      <c r="O40" s="54">
+      <c r="O40">
         <v>0.37665433464284109</v>
       </c>
-      <c r="P40" s="54">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
+      <c r="P40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
@@ -21103,29 +21076,27 @@
       <c r="I41" s="21">
         <v>613.86</v>
       </c>
-      <c r="K41" s="54" t="s">
+      <c r="K41" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="54">
+      <c r="L41">
         <v>0.3671827101422665</v>
       </c>
-      <c r="M41" s="54">
+      <c r="M41">
         <v>0.46874723913693062</v>
       </c>
-      <c r="N41" s="54">
+      <c r="N41">
         <v>0.56822923253772084</v>
       </c>
-      <c r="O41" s="54">
+      <c r="O41">
         <v>0.38883794183222176</v>
       </c>
-      <c r="P41" s="54">
+      <c r="P41">
         <v>0.76438635499740204</v>
       </c>
-      <c r="Q41" s="54">
-        <v>1</v>
-      </c>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
+      <c r="Q41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
@@ -21155,31 +21126,30 @@
       <c r="I42" s="21">
         <v>339.4</v>
       </c>
-      <c r="K42" s="54" t="s">
+      <c r="K42" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="54">
+      <c r="L42">
         <v>0.27385989656651066</v>
       </c>
-      <c r="M42" s="54">
+      <c r="M42">
         <v>0.33470197307030264</v>
       </c>
-      <c r="N42" s="54">
+      <c r="N42">
         <v>0.50845562993832549</v>
       </c>
-      <c r="O42" s="54">
+      <c r="O42">
         <v>0.34135730563746036</v>
       </c>
-      <c r="P42" s="54">
+      <c r="P42">
         <v>0.8592833674254241</v>
       </c>
-      <c r="Q42" s="54">
+      <c r="Q42">
         <v>0.84367194947010882</v>
       </c>
-      <c r="R42" s="54">
-        <v>1</v>
-      </c>
-      <c r="S42" s="54"/>
+      <c r="R42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
@@ -21209,31 +21179,31 @@
       <c r="I43" s="21">
         <v>2217.19</v>
       </c>
-      <c r="K43" s="55" t="s">
+      <c r="K43" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="L43" s="55">
+      <c r="L43" s="47">
         <v>0.14837760104091979</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="47">
         <v>0.18564788905431487</v>
       </c>
-      <c r="N43" s="55">
+      <c r="N43" s="47">
         <v>0.24226896495309114</v>
       </c>
-      <c r="O43" s="55">
+      <c r="O43" s="47">
         <v>0.21286846126669928</v>
       </c>
-      <c r="P43" s="55">
+      <c r="P43" s="47">
         <v>0.34301149011196863</v>
       </c>
-      <c r="Q43" s="55">
+      <c r="Q43" s="47">
         <v>0.43736281942775468</v>
       </c>
-      <c r="R43" s="55">
+      <c r="R43" s="47">
         <v>0.39885671852031496</v>
       </c>
-      <c r="S43" s="55">
+      <c r="S43" s="47">
         <v>1</v>
       </c>
     </row>
